--- a/BaseA.xlsx
+++ b/BaseA.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,54 +787,6 @@
         <v>1.791759469228055</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1.945910149055313</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1.791759469228055</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1.6094379124341</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45200</v>
-      </c>
-      <c r="B47" t="n">
-        <v>2.19722457733622</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B48" t="n">
-        <v>2.19722457733622</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>45261</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1.791759469228055</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
